--- a/Running projects/Pfizer/Service reports (Jan-25 to March-25).xlsx
+++ b/Running projects/Pfizer/Service reports (Jan-25 to March-25).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Pfizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB06FA2-274E-4879-843F-7EAE900529C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2438F-95F7-471D-9D47-3950EA675E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$279</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$291</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>Fan coil unit.</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>_______________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                         Performed By:</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact # </t>
+  </si>
+  <si>
+    <t>03212412026</t>
+  </si>
+  <si>
+    <t>Engr. Israr Ahmed</t>
   </si>
 </sst>
 </file>
@@ -423,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -446,11 +461,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -531,11 +555,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,16 +567,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,14 +658,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>58872</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>198437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4395391</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>218281</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>218280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,14 +724,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4851797</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>148827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2131085</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>148827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -754,13 +790,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91942</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>14554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4418712</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -820,13 +856,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4911327</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>193807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2153046</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -885,15 +921,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>140229</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>31089</xdr:rowOff>
+      <xdr:colOff>138906</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>169994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4313663</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>9922</xdr:rowOff>
+      <xdr:colOff>4194602</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -922,8 +958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="289057" y="44709292"/>
-          <a:ext cx="4768747" cy="5455708"/>
+          <a:off x="287734" y="45006947"/>
+          <a:ext cx="4651009" cy="4681803"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -951,15 +987,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4782341</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>204216</xdr:rowOff>
+      <xdr:colOff>4831947</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2143123</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>198436</xdr:rowOff>
+      <xdr:colOff>2033983</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -988,8 +1024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5526482" y="44654216"/>
-          <a:ext cx="5070079" cy="5471095"/>
+          <a:off x="5576088" y="45015548"/>
+          <a:ext cx="4911333" cy="4752577"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1017,15 +1053,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>128324</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:colOff>188516</xdr:colOff>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>10582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4345644</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>178595</xdr:rowOff>
+      <xdr:colOff>4216660</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>218282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1054,8 +1090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277152" y="50622066"/>
-          <a:ext cx="4812633" cy="5873091"/>
+          <a:off x="337344" y="51009020"/>
+          <a:ext cx="4623457" cy="5456371"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1083,15 +1119,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4702969</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:colOff>4702970</xdr:colOff>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>179918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2162969</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>128985</xdr:rowOff>
+      <xdr:colOff>2024063</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1120,8 +1156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5447110" y="50563199"/>
-          <a:ext cx="5169297" cy="5882348"/>
+          <a:off x="5447111" y="50950152"/>
+          <a:ext cx="5030390" cy="5296957"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1149,15 +1185,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4847996</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>152135</xdr:rowOff>
+      <xdr:colOff>5014830</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2143124</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>138907</xdr:rowOff>
+      <xdr:colOff>2033985</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,8 +1222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5592137" y="63463619"/>
-          <a:ext cx="5004425" cy="5552944"/>
+          <a:off x="5758971" y="64263984"/>
+          <a:ext cx="4728452" cy="5347890"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1215,15 +1251,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38806</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>258629</xdr:rowOff>
+      <xdr:colOff>227270</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>70114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4303774</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:colOff>4214476</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1252,8 +1288,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="187634" y="57031598"/>
-          <a:ext cx="4860281" cy="5902855"/>
+          <a:off x="376098" y="57835270"/>
+          <a:ext cx="4582519" cy="5565511"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1281,15 +1317,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4742657</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>228863</xdr:rowOff>
+      <xdr:colOff>4693047</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>40348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2207286</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
+      <xdr:colOff>2063749</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1318,8 +1354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486798" y="57001832"/>
-          <a:ext cx="5173926" cy="6051683"/>
+          <a:off x="5437188" y="57805504"/>
+          <a:ext cx="5079999" cy="5436528"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1347,15 +1383,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6617</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:colOff>148827</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>212327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4524376</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>20606</xdr:rowOff>
+      <xdr:colOff>4524375</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>20605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1384,8 +1420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="155445" y="39264827"/>
-          <a:ext cx="5113072" cy="4372341"/>
+          <a:off x="297655" y="39423577"/>
+          <a:ext cx="4970861" cy="4372341"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1413,14 +1449,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4899423</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:colOff>4958955</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>138906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2162967</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:colOff>2113360</xdr:colOff>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1450,8 +1486,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5643564" y="39191406"/>
-          <a:ext cx="4972841" cy="4375547"/>
+          <a:off x="5703096" y="39350156"/>
+          <a:ext cx="4863702" cy="4375547"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1479,15 +1515,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>103848</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>44317</xdr:rowOff>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>198436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4171060</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>29766</xdr:rowOff>
+      <xdr:colOff>4210748</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,8 +1552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252676" y="63584005"/>
-          <a:ext cx="4662525" cy="5511934"/>
+          <a:off x="446484" y="64353280"/>
+          <a:ext cx="4508405" cy="5258593"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst>
@@ -1588,16 +1624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>218281</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>208359</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2708672</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1329530</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>89296</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3819921</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1618,7 +1654,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962422" y="27920156"/>
+          <a:off x="13543360" y="70475078"/>
           <a:ext cx="1111249" cy="922734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1630,16 +1666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327422</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>218281</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2748359</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>347265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>615156</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3631406</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>267891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1660,7 +1696,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="6736953"/>
+          <a:off x="13583047" y="3313906"/>
           <a:ext cx="883047" cy="734219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1672,16 +1708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>162323</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>192088</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2345135</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>450057</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>211932</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3228182</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1702,7 +1738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="311151" y="12167791"/>
+          <a:off x="13179823" y="10610057"/>
           <a:ext cx="883047" cy="734219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1714,16 +1750,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>275036</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>56754</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642145</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>562770</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>76598</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1525192</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1744,7 +1780,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="423864" y="15425738"/>
+          <a:off x="11476833" y="15018941"/>
           <a:ext cx="883047" cy="734219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1756,16 +1792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5656263</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>80170</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2421731</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>268686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>248842</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>258764</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3304778</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>169468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1786,7 +1822,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400404" y="21938061"/>
+          <a:off x="13256419" y="21570952"/>
           <a:ext cx="883047" cy="734219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1796,6 +1832,43 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3323827</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>317499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1111249" cy="922734"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A28389D-8841-4D58-B471-1D9FF4F2CF6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14158515" y="69919452"/>
+          <a:ext cx="1111249" cy="922734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2065,10 +2138,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="96" zoomScaleNormal="90" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A214" zoomScale="96" zoomScaleNormal="90" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,19 +2198,17 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="29">
-        <v>45712</v>
-      </c>
-      <c r="E7" s="29"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="35" t="s">
@@ -2157,12 +2228,12 @@
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -2354,13 +2425,13 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2552,13 +2623,13 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2683,13 +2754,13 @@
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,13 +3058,13 @@
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3163,78 +3234,56 @@
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E89" s="31"/>
-    </row>
-    <row r="90" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E90" s="31"/>
-    </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" s="31"/>
-    </row>
-    <row r="92" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="31"/>
-    </row>
-    <row r="93" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" s="31"/>
-    </row>
-    <row r="94" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
+    <row r="88" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+    </row>
+    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -3358,7 +3407,7 @@
     <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
     </row>
@@ -3400,7 +3449,7 @@
     <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
@@ -3705,12 +3754,14 @@
       <c r="D161" s="5"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="6"/>
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
     </row>
     <row r="163" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
@@ -3747,14 +3798,12 @@
       <c r="D167" s="5"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
+    <row r="168" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="6"/>
     </row>
     <row r="169" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
@@ -4099,12 +4148,12 @@
       <c r="D217" s="5"/>
       <c r="E217" s="6"/>
     </row>
-    <row r="218" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="6"/>
+    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="30"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
     </row>
     <row r="219" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
@@ -4134,12 +4183,12 @@
       <c r="D222" s="5"/>
       <c r="E222" s="6"/>
     </row>
-    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="30"/>
-      <c r="B223" s="30"/>
-      <c r="C223" s="30"/>
-      <c r="D223" s="30"/>
-      <c r="E223" s="30"/>
+    <row r="223" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="6"/>
     </row>
     <row r="224" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
@@ -4386,53 +4435,162 @@
       <c r="D258" s="5"/>
       <c r="E258" s="6"/>
     </row>
-    <row r="259" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="6"/>
-    </row>
-    <row r="260" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="6"/>
-    </row>
-    <row r="261" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="6"/>
-    </row>
-    <row r="262" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="6"/>
+    <row r="279" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D279" s="29"/>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="10"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D280" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E280" s="32"/>
+    </row>
+    <row r="281" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="10"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D281" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E281" s="32"/>
+    </row>
+    <row r="282" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="10"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D282" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E282" s="32"/>
+    </row>
+    <row r="283" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="10"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D283" s="32"/>
+      <c r="E283" s="32"/>
+    </row>
+    <row r="284" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D284" s="33">
+        <v>45714</v>
+      </c>
+      <c r="E284" s="32"/>
+    </row>
+    <row r="285" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="28"/>
+      <c r="E285" s="28"/>
+    </row>
+    <row r="286" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D286" s="29"/>
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="10"/>
+      <c r="B287" s="10"/>
+      <c r="C287" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D287" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E287" s="31"/>
+    </row>
+    <row r="288" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D288" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E288" s="31"/>
+    </row>
+    <row r="289" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D289" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E289" s="31"/>
+    </row>
+    <row r="290" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D290" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E290" s="31"/>
+    </row>
+    <row r="291" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="10"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D291" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E291" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A162:E162"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A75:E75"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="D290:E290"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4441,15 +4599,18 @@
     <oddFooter>&amp;R
 Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="8" manualBreakCount="8">
+  <rowBreaks count="11" manualBreakCount="11">
     <brk id="25" max="4" man="1"/>
     <brk id="40" max="4" man="1"/>
     <brk id="52" max="4" man="1"/>
     <brk id="73" max="4" man="1"/>
-    <brk id="93" max="16383" man="1"/>
-    <brk id="120" max="4" man="1"/>
-    <brk id="145" max="4" man="1"/>
-    <brk id="166" max="4" man="1"/>
+    <brk id="87" max="16383" man="1"/>
+    <brk id="114" max="4" man="1"/>
+    <brk id="139" max="4" man="1"/>
+    <brk id="160" max="4" man="1"/>
+    <brk id="188" max="16383" man="1"/>
+    <brk id="245" max="4" man="1"/>
+    <brk id="277" max="4" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
